--- a/data/trans_camb/P55_9-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P55_9-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-2,67</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,41</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-2,1</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-2.192731303297746</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-1.956082842665174</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-2.115840775307631</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-18,74; 0,0</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-7,98; 7,75</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-7,55; 1,91</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-14.93529852678533</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-10.13811913767002</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-7.399517086127637</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-2,67%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-1,45%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-2,13%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.802380932006471</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.436436842116842</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-18,74; 0,0</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-8,14; 8,01</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-7,72; 1,95</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.02192731303297746</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.02001671229078461</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.02139543176527847</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,8</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,36</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,63</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.1493529852678533</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.1035765109072226</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.07475550291604791</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-12,65; 4,65</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-5,62; 12,27</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-5,02; 6,02</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.05011475266919192</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.01459431826462347</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,82%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,49%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,65%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.3441664411118261</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.13268163203425</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.202222116605212</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-12,66; 4,9</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-5,74; 14,27</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-5,11; 6,52</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-4.701020849028496</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-5.771272184745923</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-3.525049728525351</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,19</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,71</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>9.973205259806027</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>12.59764751360181</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>7.091103837727901</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 6,08</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,55</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.003526056149800672</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.02242278916668331</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.0124649841220488</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,2%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,71%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.04746205990920365</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.05834124414510888</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.0348733540261919</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 6,48</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,68</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.1094915651490482</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.1406943282046547</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.08036837195855277</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +775,179 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1.336933753058833</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.7894588124969237</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr"/>
+      <c r="D17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr"/>
+      <c r="D18" s="5" t="n">
+        <v>6.773243647953775</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>3.966484108461504</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.01355049872170663</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.007957408588316086</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>3,97</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>1,66</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="inlineStr"/>
+      <c r="D20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 13,07</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 5,95</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="inlineStr"/>
+      <c r="D21" s="6" t="n">
+        <v>0.07265343384362317</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.04130421539611069</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>4,13%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>1,69%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 15,04</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 6,33</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr"/>
+      <c r="D23" s="5" t="inlineStr"/>
+      <c r="E23" s="5" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-7,08</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-4,57</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr"/>
+      <c r="D24" s="5" t="inlineStr"/>
+      <c r="E24" s="5" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-41,2; 8,07</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-26,57; 5,41</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-7,65%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-4,76%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="inlineStr"/>
+      <c r="D26" s="6" t="inlineStr"/>
+      <c r="E26" s="6" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-44,0; 8,99</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-27,35; 5,7</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="inlineStr"/>
+      <c r="D27" s="6" t="inlineStr"/>
+      <c r="E27" s="6" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +955,299 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>-0,59</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>-0,72</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>-0,67</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>4.401609879086399</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>1.837638666272834</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>-2,93; 0,69</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>-8,47; 2,67</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>-4,6; 1,38</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="inlineStr"/>
+      <c r="D29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>-0,59%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>-0,74%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>-0,68%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="inlineStr"/>
+      <c r="D30" s="5" t="n">
+        <v>14.65881439156343</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>6.699666746344192</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>-2,96; 0,69</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>-8,61; 2,77</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-4,67; 1,41</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>0.04604271968930865</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>0.01872039997107779</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="inlineStr"/>
+      <c r="D32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="inlineStr"/>
+      <c r="D33" s="6" t="n">
+        <v>0.1716827584684735</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>0.07179886383224533</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>-4.975957023505528</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>-3.317394713795518</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="inlineStr"/>
+      <c r="D35" s="5" t="n">
+        <v>-34.78406142182023</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>-22.03476309104362</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="inlineStr"/>
+      <c r="D36" s="5" t="n">
+        <v>8.729947255083768</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>5.502474785046207</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>-0.05360201737050534</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>-0.03458602959713077</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="inlineStr"/>
+      <c r="D38" s="6" t="n">
+        <v>-0.3795309653132596</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-0.225089280785039</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="inlineStr"/>
+      <c r="D39" s="6" t="n">
+        <v>0.09812357243650008</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>0.0589086824119887</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>-0.2936716768379366</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>-0.3234829092949032</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>-0.3148396994619884</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>-1.646767893037926</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>-6.731354563337419</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>-3.291595478074313</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>1.025566456471922</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>2.79504470039959</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>1.564377307353185</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>-0.002950194835441769</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>-0.003330453913313316</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>-0.003202651536814239</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>-0.01656069230907493</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>-0.06815020829587146</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>-0.03341741934955785</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>0.01031160273228723</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>0.02909351906273556</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>0.01586832881899165</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1224,14 +1255,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
